--- a/Code/Results/Cases/Case_5_203/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_203/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.370256532119669</v>
+        <v>1.040936523213929</v>
       </c>
       <c r="C2">
-        <v>0.2090971500087448</v>
+        <v>0.1440678763283501</v>
       </c>
       <c r="D2">
-        <v>0.01835943391793649</v>
+        <v>0.03147556612527325</v>
       </c>
       <c r="E2">
-        <v>0.05204792301392658</v>
+        <v>0.0941923848748516</v>
       </c>
       <c r="F2">
-        <v>2.34819492904137</v>
+        <v>3.472502459719266</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1086253004579021</v>
+        <v>0.1843251799547332</v>
       </c>
       <c r="K2">
-        <v>1.485937312532855</v>
+        <v>1.106647970836605</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4001213000551687</v>
+        <v>0.3884562439538257</v>
       </c>
       <c r="N2">
-        <v>2.215257964055752</v>
+        <v>3.608084878746737</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.201811652937636</v>
+        <v>1.002616785891178</v>
       </c>
       <c r="C3">
-        <v>0.1820878998636601</v>
+        <v>0.1380182215027759</v>
       </c>
       <c r="D3">
-        <v>0.01593936749045355</v>
+        <v>0.03117916304615065</v>
       </c>
       <c r="E3">
-        <v>0.04784148713331149</v>
+        <v>0.09372680780220932</v>
       </c>
       <c r="F3">
-        <v>2.224001126244332</v>
+        <v>3.453374209637289</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1023287823066923</v>
+        <v>0.1836150428679844</v>
       </c>
       <c r="K3">
-        <v>1.301152970872522</v>
+        <v>1.064745862659692</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3538460444807043</v>
+        <v>0.3789740781784872</v>
       </c>
       <c r="N3">
-        <v>2.219152828798755</v>
+        <v>3.61270804478049</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.100122715241412</v>
+        <v>0.9797222471354701</v>
       </c>
       <c r="C4">
-        <v>0.1657883525061834</v>
+        <v>0.1343971755217552</v>
       </c>
       <c r="D4">
-        <v>0.01446194440029913</v>
+        <v>0.03101622485688438</v>
       </c>
       <c r="E4">
-        <v>0.04532605819614233</v>
+        <v>0.09348286438027564</v>
       </c>
       <c r="F4">
-        <v>2.151081491561101</v>
+        <v>3.442993684828451</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09861347220272876</v>
+        <v>0.1832525573495829</v>
       </c>
       <c r="K4">
-        <v>1.189606657086898</v>
+        <v>1.03970120394527</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3259606563003459</v>
+        <v>0.3733789150369304</v>
       </c>
       <c r="N4">
-        <v>2.223601724025585</v>
+        <v>3.616319524722684</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05907433478481</v>
+        <v>0.9705518261576742</v>
       </c>
       <c r="C5">
-        <v>0.1592093627523496</v>
+        <v>0.1329450154798906</v>
       </c>
       <c r="D5">
-        <v>0.01386176888766499</v>
+        <v>0.03095464164490735</v>
       </c>
       <c r="E5">
-        <v>0.04431676575991972</v>
+        <v>0.09339401245362389</v>
       </c>
       <c r="F5">
-        <v>2.122147918986926</v>
+        <v>3.439106426931914</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09713484940369455</v>
+        <v>0.183123337891999</v>
       </c>
       <c r="K5">
-        <v>1.144579643714991</v>
+        <v>1.029666963550881</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3147169766998275</v>
+        <v>0.3711558974214597</v>
       </c>
       <c r="N5">
-        <v>2.22590814160499</v>
+        <v>3.617985388974787</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.052280591847705</v>
+        <v>0.9690387021583149</v>
       </c>
       <c r="C6">
-        <v>0.1581205136456703</v>
+        <v>0.1327052998244795</v>
       </c>
       <c r="D6">
-        <v>0.01376221713258019</v>
+        <v>0.03094470734889398</v>
       </c>
       <c r="E6">
-        <v>0.04415009303552786</v>
+        <v>0.09337989672773617</v>
       </c>
       <c r="F6">
-        <v>2.117389144325983</v>
+        <v>3.438481655583601</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09689139268014202</v>
+        <v>0.1831029983537178</v>
       </c>
       <c r="K6">
-        <v>1.137127407897594</v>
+        <v>1.02801114826778</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3128568506250744</v>
+        <v>0.3707902130347307</v>
       </c>
       <c r="N6">
-        <v>2.226320257195411</v>
+        <v>3.618273725887036</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.099567599150731</v>
+        <v>0.9795979268280064</v>
       </c>
       <c r="C7">
-        <v>0.1656993805187881</v>
+        <v>0.1343774963276871</v>
       </c>
       <c r="D7">
-        <v>0.01445384290485663</v>
+        <v>0.03101537479412286</v>
       </c>
       <c r="E7">
-        <v>0.04531238417918004</v>
+        <v>0.09348162332676857</v>
       </c>
       <c r="F7">
-        <v>2.150688190479556</v>
+        <v>3.44293987180221</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0985933908638188</v>
+        <v>0.1832507397546195</v>
       </c>
       <c r="K7">
-        <v>1.188997735808584</v>
+        <v>1.03956518386255</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3258085512491462</v>
+        <v>0.3733487036287642</v>
       </c>
       <c r="N7">
-        <v>2.223630861544095</v>
+        <v>3.616341205275674</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.311787464295776</v>
+        <v>1.027592216632002</v>
       </c>
       <c r="C8">
-        <v>0.1997201943627687</v>
+        <v>0.1419625192838225</v>
       </c>
       <c r="D8">
-        <v>0.01752306987538432</v>
+        <v>0.03136942572517398</v>
       </c>
       <c r="E8">
-        <v>0.05058283865138691</v>
+        <v>0.0940231614929985</v>
       </c>
       <c r="F8">
-        <v>2.304644915715485</v>
+        <v>3.465623759463455</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1064213951472865</v>
+        <v>0.1840650626496227</v>
       </c>
       <c r="K8">
-        <v>1.421794476340125</v>
+        <v>1.092058152974886</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3840480008078586</v>
+        <v>0.3851396870669319</v>
       </c>
       <c r="N8">
-        <v>2.21615896472413</v>
+        <v>3.609518432469969</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.744001198977458</v>
+        <v>1.126750821029333</v>
       </c>
       <c r="C9">
-        <v>0.2690987976741894</v>
+        <v>0.1575819356266095</v>
       </c>
       <c r="D9">
-        <v>0.02362213087172904</v>
+        <v>0.03221394087337615</v>
       </c>
       <c r="E9">
-        <v>0.06150992859187809</v>
+        <v>0.09541725817980051</v>
       </c>
       <c r="F9">
-        <v>2.635827112510583</v>
+        <v>3.520945794967929</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1230921895753525</v>
+        <v>0.1862455951661772</v>
       </c>
       <c r="K9">
-        <v>1.896031766440814</v>
+        <v>1.200434798318298</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5030777246077776</v>
+        <v>0.410064408209486</v>
       </c>
       <c r="N9">
-        <v>2.219004183503074</v>
+        <v>3.602280622564493</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.074809711298769</v>
+        <v>1.202702450768072</v>
       </c>
       <c r="C10">
-        <v>0.3223235305648586</v>
+        <v>0.169518252604405</v>
       </c>
       <c r="D10">
-        <v>0.02817214430124437</v>
+        <v>0.03292481664953328</v>
       </c>
       <c r="E10">
-        <v>0.06998653653565157</v>
+        <v>0.09664356862871415</v>
       </c>
       <c r="F10">
-        <v>2.901281743722819</v>
+        <v>3.568226683539621</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1363340973803346</v>
+        <v>0.1882040475264972</v>
       </c>
       <c r="K10">
-        <v>2.259171139551626</v>
+        <v>1.283406248854845</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5944401699269193</v>
+        <v>0.429481104229275</v>
       </c>
       <c r="N10">
-        <v>2.233553517227875</v>
+        <v>3.600722327107007</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.229047829173794</v>
+        <v>1.237934210162962</v>
       </c>
       <c r="C11">
-        <v>0.3471834304225467</v>
+        <v>0.1750499290519372</v>
       </c>
       <c r="D11">
-        <v>0.03026209435317639</v>
+        <v>0.0332676081329808</v>
       </c>
       <c r="E11">
-        <v>0.07396188241212798</v>
+        <v>0.09724525919538962</v>
       </c>
       <c r="F11">
-        <v>3.027919582451773</v>
+        <v>3.591183626566959</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1426210397056096</v>
+        <v>0.1891725567466622</v>
       </c>
       <c r="K11">
-        <v>2.428543797038714</v>
+        <v>1.321886528387779</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6370944072069165</v>
+        <v>0.4385554914805141</v>
       </c>
       <c r="N11">
-        <v>2.243326385097689</v>
+        <v>3.60083321758195</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.288073533839338</v>
+        <v>1.25137380740324</v>
       </c>
       <c r="C12">
-        <v>0.3567050916568064</v>
+        <v>0.1771593605082558</v>
       </c>
       <c r="D12">
-        <v>0.03105686016417053</v>
+        <v>0.03340018388582422</v>
       </c>
       <c r="E12">
-        <v>0.07548640225603265</v>
+        <v>0.09747939734690547</v>
       </c>
       <c r="F12">
-        <v>3.0768193894734</v>
+        <v>3.600085530014979</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1450439507484447</v>
+        <v>0.1895504710762381</v>
       </c>
       <c r="K12">
-        <v>2.493372345274906</v>
+        <v>1.336564280185712</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6534260539852426</v>
+        <v>0.4420265348665495</v>
       </c>
       <c r="N12">
-        <v>2.247522892998802</v>
+        <v>3.600993353464816</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.275332401044295</v>
+        <v>1.248474984104007</v>
       </c>
       <c r="C13">
-        <v>0.3546493888725877</v>
+        <v>0.1767044015520582</v>
       </c>
       <c r="D13">
-        <v>0.03088553653041259</v>
+        <v>0.03337150858120452</v>
       </c>
       <c r="E13">
-        <v>0.07515718442743946</v>
+        <v>0.09742869191006065</v>
       </c>
       <c r="F13">
-        <v>3.066244229295393</v>
+        <v>3.598159063141878</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1445201833566543</v>
+        <v>0.1894685840391688</v>
       </c>
       <c r="K13">
-        <v>2.479378099473962</v>
+        <v>1.333398440637581</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6499003829013645</v>
+        <v>0.4412774367781864</v>
       </c>
       <c r="N13">
-        <v>2.246596331464531</v>
+        <v>3.600953606608172</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.233891016372979</v>
+        <v>1.23903792695512</v>
       </c>
       <c r="C14">
-        <v>0.347964534117267</v>
+        <v>0.1752231781253499</v>
       </c>
       <c r="D14">
-        <v>0.03032741036675191</v>
+        <v>0.03327845987533351</v>
       </c>
       <c r="E14">
-        <v>0.0740869098217587</v>
+        <v>0.09726439587199209</v>
       </c>
       <c r="F14">
-        <v>3.031923058457863</v>
+        <v>3.591911808989948</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1428195021480931</v>
+        <v>0.1892034242906604</v>
       </c>
       <c r="K14">
-        <v>2.433862886958224</v>
+        <v>1.32309194791182</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6384342901758018</v>
+        <v>0.4388403593288075</v>
       </c>
       <c r="N14">
-        <v>2.243661441251135</v>
+        <v>3.600844022754032</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.208590098609079</v>
+        <v>1.233270236943156</v>
       </c>
       <c r="C15">
-        <v>0.343884362005781</v>
+        <v>0.1743178031856871</v>
       </c>
       <c r="D15">
-        <v>0.02998599213357522</v>
+        <v>0.03322182465642953</v>
       </c>
       <c r="E15">
-        <v>0.07343389110017284</v>
+        <v>0.09716457871024531</v>
       </c>
       <c r="F15">
-        <v>3.011026512287657</v>
+        <v>3.588112361220396</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.141783415877903</v>
+        <v>0.1890424598412537</v>
       </c>
       <c r="K15">
-        <v>2.406076298527069</v>
+        <v>1.316792749018617</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.631435042019163</v>
+        <v>0.4373521078081879</v>
       </c>
       <c r="N15">
-        <v>2.241929624603515</v>
+        <v>3.600792293197784</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.06481199764022</v>
+        <v>1.200413689924744</v>
       </c>
       <c r="C16">
-        <v>0.3207131246653887</v>
+        <v>0.1691587985933722</v>
       </c>
       <c r="D16">
-        <v>0.0280360037788796</v>
+        <v>0.0329028030249674</v>
       </c>
       <c r="E16">
-        <v>0.06972930430623592</v>
+        <v>0.09660512774502195</v>
       </c>
       <c r="F16">
-        <v>2.893132244308106</v>
+        <v>3.566755568557255</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1359288870346163</v>
+        <v>0.1881423148480081</v>
       </c>
       <c r="K16">
-        <v>2.248193796729907</v>
+        <v>1.28090630629697</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5916764582854768</v>
+        <v>0.4288929359153855</v>
       </c>
       <c r="N16">
-        <v>2.232981810926375</v>
+        <v>3.600731598292739</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.977623762967482</v>
+        <v>1.180431797296251</v>
       </c>
       <c r="C17">
-        <v>0.3066741231515948</v>
+        <v>0.1660200348086676</v>
       </c>
       <c r="D17">
-        <v>0.02684521137287987</v>
+        <v>0.03271204853791687</v>
       </c>
       <c r="E17">
-        <v>0.06748856771717726</v>
+        <v>0.09627314108558949</v>
       </c>
       <c r="F17">
-        <v>2.822381552000977</v>
+        <v>3.554025104543427</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1324076703564145</v>
+        <v>0.1876099815406249</v>
       </c>
       <c r="K17">
-        <v>2.15246932667165</v>
+        <v>1.259079855439523</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5675809123682498</v>
+        <v>0.4237654121635259</v>
       </c>
       <c r="N17">
-        <v>2.22832910638185</v>
+        <v>3.600904511160948</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.927823292987142</v>
+        <v>1.169002827821117</v>
       </c>
       <c r="C18">
-        <v>0.2986592614487904</v>
+        <v>0.1642242772688292</v>
       </c>
       <c r="D18">
-        <v>0.02616216361363399</v>
+        <v>0.03260415998040145</v>
       </c>
       <c r="E18">
-        <v>0.06621085364135482</v>
+        <v>0.09608631790550604</v>
       </c>
       <c r="F18">
-        <v>2.782234677107979</v>
+        <v>3.546839211979986</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1304068416659305</v>
+        <v>0.1873111013668733</v>
       </c>
       <c r="K18">
-        <v>2.097798555134631</v>
+        <v>1.246595132885773</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5538232095640439</v>
+        <v>0.4208389384247511</v>
       </c>
       <c r="N18">
-        <v>2.22594711547103</v>
+        <v>3.601081110432915</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.911019168319427</v>
+        <v>1.165144177003612</v>
       </c>
       <c r="C19">
-        <v>0.295955452240861</v>
+        <v>0.1636179072934567</v>
       </c>
       <c r="D19">
-        <v>0.02593120258012505</v>
+        <v>0.03256794550475206</v>
       </c>
       <c r="E19">
-        <v>0.06578009036672228</v>
+        <v>0.09602377194917366</v>
       </c>
       <c r="F19">
-        <v>2.768732738588966</v>
+        <v>3.544429598773206</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1297334750704664</v>
+        <v>0.1872111600612172</v>
       </c>
       <c r="K19">
-        <v>2.079351921411615</v>
+        <v>1.242379910925905</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5491818656681531</v>
+        <v>0.4198519900443287</v>
       </c>
       <c r="N19">
-        <v>2.225189918040684</v>
+        <v>3.601154145594791</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.986868543005983</v>
+        <v>1.182552269947962</v>
       </c>
       <c r="C20">
-        <v>0.3081622881349517</v>
+        <v>0.1663531699589385</v>
       </c>
       <c r="D20">
-        <v>0.02697177715473487</v>
+        <v>0.03273216561607484</v>
       </c>
       <c r="E20">
-        <v>0.06772593554253703</v>
+        <v>0.09630805461943126</v>
       </c>
       <c r="F20">
-        <v>2.829855781166486</v>
+        <v>3.555366172084817</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1327799460369548</v>
+        <v>0.1876658933935715</v>
       </c>
       <c r="K20">
-        <v>2.162618642877902</v>
+        <v>1.261396146965382</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5701352741833858</v>
+        <v>0.4243088919196936</v>
       </c>
       <c r="N20">
-        <v>2.228793663217942</v>
+        <v>3.600878118300614</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.24604587798666</v>
+        <v>1.241807155747722</v>
       </c>
       <c r="C21">
-        <v>0.3499249889700593</v>
+        <v>0.1756578496876102</v>
       </c>
       <c r="D21">
-        <v>0.03049125086015181</v>
+        <v>0.03330571559491347</v>
       </c>
       <c r="E21">
-        <v>0.07440073904215794</v>
+        <v>0.09731248296394668</v>
       </c>
       <c r="F21">
-        <v>3.041977534322513</v>
+        <v>3.593741115018247</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1433178517373719</v>
+        <v>0.189281005212564</v>
       </c>
       <c r="K21">
-        <v>2.447212295965414</v>
+        <v>1.326116332984583</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6417971014497965</v>
+        <v>0.4395552442122437</v>
       </c>
       <c r="N21">
-        <v>2.244509676788496</v>
+        <v>3.600873001674032</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.41908488849424</v>
+        <v>1.281105503327865</v>
       </c>
       <c r="C22">
-        <v>0.3778554073206237</v>
+        <v>0.1818247445086456</v>
       </c>
       <c r="D22">
-        <v>0.0328111858940332</v>
+        <v>0.03369668745627052</v>
       </c>
       <c r="E22">
-        <v>0.07887575971323102</v>
+        <v>0.09800559804652664</v>
       </c>
       <c r="F22">
-        <v>3.186172258537738</v>
+        <v>3.620037426138254</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1504532089729054</v>
+        <v>0.1904016298296582</v>
       </c>
       <c r="K22">
-        <v>2.63728606301882</v>
+        <v>1.369033298086919</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6896900677545759</v>
+        <v>0.4497222945052783</v>
       </c>
       <c r="N22">
-        <v>2.257693506423834</v>
+        <v>3.601558417073136</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.326368043846173</v>
+        <v>1.260078852868389</v>
       </c>
       <c r="C23">
-        <v>0.3628849529063416</v>
+        <v>0.1785254875138378</v>
       </c>
       <c r="D23">
-        <v>0.03157102267810075</v>
+        <v>0.03348655067213002</v>
       </c>
       <c r="E23">
-        <v>0.07647633852747404</v>
+        <v>0.0976323188778494</v>
       </c>
       <c r="F23">
-        <v>3.10866843381325</v>
+        <v>3.605891219436529</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1466206645292232</v>
+        <v>0.1897975779281111</v>
       </c>
       <c r="K23">
-        <v>2.53543495204309</v>
+        <v>1.346071021915606</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6640239251225495</v>
+        <v>0.4442773952003236</v>
       </c>
       <c r="N23">
-        <v>2.250375397941525</v>
+        <v>3.601129488439057</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.982687970913275</v>
+        <v>1.181593420852437</v>
       </c>
       <c r="C24">
-        <v>0.3074893143210602</v>
+        <v>0.1662025322792715</v>
       </c>
       <c r="D24">
-        <v>0.0269145519558478</v>
+        <v>0.03272306514259782</v>
       </c>
       <c r="E24">
-        <v>0.06761858894386563</v>
+        <v>0.09629225762494897</v>
       </c>
       <c r="F24">
-        <v>2.826475042923903</v>
+        <v>3.554759461120156</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1326115671227726</v>
+        <v>0.1876405933264635</v>
       </c>
       <c r="K24">
-        <v>2.15802901458602</v>
+        <v>1.260348753498647</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5689801524954561</v>
+        <v>0.4240631180418006</v>
       </c>
       <c r="N24">
-        <v>2.228582727850593</v>
+        <v>3.600889810081895</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.625017894742939</v>
+        <v>1.099383343701874</v>
       </c>
       <c r="C25">
-        <v>0.2499836425151614</v>
+        <v>0.1532760300545135</v>
       </c>
       <c r="D25">
-        <v>0.02196161995556878</v>
+        <v>0.03196951659402458</v>
       </c>
       <c r="E25">
-        <v>0.0584819219635655</v>
+        <v>0.09500460391909726</v>
       </c>
       <c r="F25">
-        <v>2.542680823807018</v>
+        <v>3.504816464229137</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1184224914992527</v>
+        <v>0.1855931587326296</v>
       </c>
       <c r="K25">
-        <v>1.765458510306871</v>
+        <v>1.170530588199767</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4702658312069588</v>
+        <v>0.4031280583612897</v>
       </c>
       <c r="N25">
-        <v>2.21618664500339</v>
+        <v>3.603579582798574</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_203/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_203/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.040936523213929</v>
+        <v>1.37025653211964</v>
       </c>
       <c r="C2">
-        <v>0.1440678763283501</v>
+        <v>0.2090971500087448</v>
       </c>
       <c r="D2">
-        <v>0.03147556612527325</v>
+        <v>0.01835943391802886</v>
       </c>
       <c r="E2">
-        <v>0.0941923848748516</v>
+        <v>0.05204792301391947</v>
       </c>
       <c r="F2">
-        <v>3.472502459719266</v>
+        <v>2.348194929041355</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1843251799547332</v>
+        <v>0.1086253004579589</v>
       </c>
       <c r="K2">
-        <v>1.106647970836605</v>
+        <v>1.485937312532826</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3884562439538257</v>
+        <v>0.4001213000551758</v>
       </c>
       <c r="N2">
-        <v>3.608084878746737</v>
+        <v>2.215257964055809</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.002616785891178</v>
+        <v>1.201811652937607</v>
       </c>
       <c r="C3">
-        <v>0.1380182215027759</v>
+        <v>0.1820878998633759</v>
       </c>
       <c r="D3">
-        <v>0.03117916304615065</v>
+        <v>0.01593936749032565</v>
       </c>
       <c r="E3">
-        <v>0.09372680780220932</v>
+        <v>0.04784148713331149</v>
       </c>
       <c r="F3">
-        <v>3.453374209637289</v>
+        <v>2.224001126244332</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1836150428679844</v>
+        <v>0.1023287823066852</v>
       </c>
       <c r="K3">
-        <v>1.064745862659692</v>
+        <v>1.301152970872522</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3789740781784872</v>
+        <v>0.3538460444806972</v>
       </c>
       <c r="N3">
-        <v>3.61270804478049</v>
+        <v>2.219152828798741</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9797222471354701</v>
+        <v>1.100122715241355</v>
       </c>
       <c r="C4">
-        <v>0.1343971755217552</v>
+        <v>0.1657883525060697</v>
       </c>
       <c r="D4">
-        <v>0.03101622485688438</v>
+        <v>0.01446194440005044</v>
       </c>
       <c r="E4">
-        <v>0.09348286438027564</v>
+        <v>0.04532605819614055</v>
       </c>
       <c r="F4">
-        <v>3.442993684828451</v>
+        <v>2.151081491561058</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1832525573495829</v>
+        <v>0.09861347220271455</v>
       </c>
       <c r="K4">
-        <v>1.03970120394527</v>
+        <v>1.18960665708704</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3733789150369304</v>
+        <v>0.325960656300353</v>
       </c>
       <c r="N4">
-        <v>3.616319524722684</v>
+        <v>2.223601724025599</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9705518261576742</v>
+        <v>1.059074334784839</v>
       </c>
       <c r="C5">
-        <v>0.1329450154798906</v>
+        <v>0.1592093627523212</v>
       </c>
       <c r="D5">
-        <v>0.03095464164490735</v>
+        <v>0.01386176888762236</v>
       </c>
       <c r="E5">
-        <v>0.09339401245362389</v>
+        <v>0.04431676575990906</v>
       </c>
       <c r="F5">
-        <v>3.439106426931914</v>
+        <v>2.122147918986954</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.183123337891999</v>
+        <v>0.09713484940380113</v>
       </c>
       <c r="K5">
-        <v>1.029666963550881</v>
+        <v>1.144579643714991</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3711558974214597</v>
+        <v>0.3147169766998275</v>
       </c>
       <c r="N5">
-        <v>3.617985388974787</v>
+        <v>2.225908141604975</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9690387021583149</v>
+        <v>1.052280591847477</v>
       </c>
       <c r="C6">
-        <v>0.1327052998244795</v>
+        <v>0.1581205136454997</v>
       </c>
       <c r="D6">
-        <v>0.03094470734889398</v>
+        <v>0.01376221713275072</v>
       </c>
       <c r="E6">
-        <v>0.09337989672773617</v>
+        <v>0.04415009303552964</v>
       </c>
       <c r="F6">
-        <v>3.438481655583601</v>
+        <v>2.117389144325969</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1831029983537178</v>
+        <v>0.09689139268008518</v>
       </c>
       <c r="K6">
-        <v>1.02801114826778</v>
+        <v>1.137127407897594</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3707902130347307</v>
+        <v>0.3128568506250744</v>
       </c>
       <c r="N6">
-        <v>3.618273725887036</v>
+        <v>2.22632025719534</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9795979268280064</v>
+        <v>1.09956759915076</v>
       </c>
       <c r="C7">
-        <v>0.1343774963276871</v>
+        <v>0.1656993805186033</v>
       </c>
       <c r="D7">
-        <v>0.03101537479412286</v>
+        <v>0.01445384290485663</v>
       </c>
       <c r="E7">
-        <v>0.09348162332676857</v>
+        <v>0.04531238417918004</v>
       </c>
       <c r="F7">
-        <v>3.44293987180221</v>
+        <v>2.150688190479556</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1832507397546195</v>
+        <v>0.09859339086385432</v>
       </c>
       <c r="K7">
-        <v>1.03956518386255</v>
+        <v>1.188997735808499</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3733487036287642</v>
+        <v>0.3258085512491391</v>
       </c>
       <c r="N7">
-        <v>3.616341205275674</v>
+        <v>2.223630861544095</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.027592216632002</v>
+        <v>1.311787464295804</v>
       </c>
       <c r="C8">
-        <v>0.1419625192838225</v>
+        <v>0.1997201943627687</v>
       </c>
       <c r="D8">
-        <v>0.03136942572517398</v>
+        <v>0.01752306987517827</v>
       </c>
       <c r="E8">
-        <v>0.0940231614929985</v>
+        <v>0.0505828386513727</v>
       </c>
       <c r="F8">
-        <v>3.465623759463455</v>
+        <v>2.304644915715457</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1840650626496227</v>
+        <v>0.1064213951473008</v>
       </c>
       <c r="K8">
-        <v>1.092058152974886</v>
+        <v>1.42179447634004</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3851396870669319</v>
+        <v>0.3840480008078444</v>
       </c>
       <c r="N8">
-        <v>3.609518432469969</v>
+        <v>2.216158964724087</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.126750821029333</v>
+        <v>1.744001198977628</v>
       </c>
       <c r="C9">
-        <v>0.1575819356266095</v>
+        <v>0.2690987976737915</v>
       </c>
       <c r="D9">
-        <v>0.03221394087337615</v>
+        <v>0.02362213087175036</v>
       </c>
       <c r="E9">
-        <v>0.09541725817980051</v>
+        <v>0.0615099285918852</v>
       </c>
       <c r="F9">
-        <v>3.520945794967929</v>
+        <v>2.635827112510611</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1862455951661772</v>
+        <v>0.1230921895753809</v>
       </c>
       <c r="K9">
-        <v>1.200434798318298</v>
+        <v>1.896031766440785</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.410064408209486</v>
+        <v>0.5030777246077847</v>
       </c>
       <c r="N9">
-        <v>3.602280622564493</v>
+        <v>2.219004183503117</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.202702450768072</v>
+        <v>2.074809711298769</v>
       </c>
       <c r="C10">
-        <v>0.169518252604405</v>
+        <v>0.3223235305642049</v>
       </c>
       <c r="D10">
-        <v>0.03292481664953328</v>
+        <v>0.02817214430136517</v>
       </c>
       <c r="E10">
-        <v>0.09664356862871415</v>
+        <v>0.06998653653568354</v>
       </c>
       <c r="F10">
-        <v>3.568226683539621</v>
+        <v>2.901281743722819</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1882040475264972</v>
+        <v>0.1363340973802423</v>
       </c>
       <c r="K10">
-        <v>1.283406248854845</v>
+        <v>2.25917113955154</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.429481104229275</v>
+        <v>0.5944401699269193</v>
       </c>
       <c r="N10">
-        <v>3.600722327107007</v>
+        <v>2.233553517227904</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.237934210162962</v>
+        <v>2.229047829173794</v>
       </c>
       <c r="C11">
-        <v>0.1750499290519372</v>
+        <v>0.3471834304225183</v>
       </c>
       <c r="D11">
-        <v>0.0332676081329808</v>
+        <v>0.03026209435306981</v>
       </c>
       <c r="E11">
-        <v>0.09724525919538962</v>
+        <v>0.0739618824121564</v>
       </c>
       <c r="F11">
-        <v>3.591183626566959</v>
+        <v>3.027919582451773</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1891725567466622</v>
+        <v>0.142621039705638</v>
       </c>
       <c r="K11">
-        <v>1.321886528387779</v>
+        <v>2.428543797038714</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4385554914805141</v>
+        <v>0.6370944072069236</v>
       </c>
       <c r="N11">
-        <v>3.60083321758195</v>
+        <v>2.243326385097703</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.25137380740324</v>
+        <v>2.288073533839452</v>
       </c>
       <c r="C12">
-        <v>0.1771593605082558</v>
+        <v>0.3567050916568064</v>
       </c>
       <c r="D12">
-        <v>0.03340018388582422</v>
+        <v>0.03105686016429132</v>
       </c>
       <c r="E12">
-        <v>0.09747939734690547</v>
+        <v>0.07548640225603265</v>
       </c>
       <c r="F12">
-        <v>3.600085530014979</v>
+        <v>3.076819389473371</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1895504710762381</v>
+        <v>0.1450439507485015</v>
       </c>
       <c r="K12">
-        <v>1.336564280185712</v>
+        <v>2.493372345274906</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4420265348665495</v>
+        <v>0.6534260539852426</v>
       </c>
       <c r="N12">
-        <v>3.600993353464816</v>
+        <v>2.24752289299883</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.248474984104007</v>
+        <v>2.275332401044466</v>
       </c>
       <c r="C13">
-        <v>0.1767044015520582</v>
+        <v>0.3546493888730708</v>
       </c>
       <c r="D13">
-        <v>0.03337150858120452</v>
+        <v>0.03088553653039838</v>
       </c>
       <c r="E13">
-        <v>0.09742869191006065</v>
+        <v>0.07515718442743946</v>
       </c>
       <c r="F13">
-        <v>3.598159063141878</v>
+        <v>3.066244229295393</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1894685840391688</v>
+        <v>0.1445201833566472</v>
       </c>
       <c r="K13">
-        <v>1.333398440637581</v>
+        <v>2.479378099474047</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4412774367781864</v>
+        <v>0.6499003829013574</v>
       </c>
       <c r="N13">
-        <v>3.600953606608172</v>
+        <v>2.246596331464531</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.23903792695512</v>
+        <v>2.233891016372809</v>
       </c>
       <c r="C14">
-        <v>0.1752231781253499</v>
+        <v>0.3479645341170112</v>
       </c>
       <c r="D14">
-        <v>0.03327845987533351</v>
+        <v>0.03032741036688691</v>
       </c>
       <c r="E14">
-        <v>0.09726439587199209</v>
+        <v>0.0740869098217587</v>
       </c>
       <c r="F14">
-        <v>3.591911808989948</v>
+        <v>3.031923058457863</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1892034242906604</v>
+        <v>0.1428195021481642</v>
       </c>
       <c r="K14">
-        <v>1.32309194791182</v>
+        <v>2.433862886958281</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4388403593288075</v>
+        <v>0.6384342901757876</v>
       </c>
       <c r="N14">
-        <v>3.600844022754032</v>
+        <v>2.243661441251163</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.233270236943156</v>
+        <v>2.208590098608738</v>
       </c>
       <c r="C15">
-        <v>0.1743178031856871</v>
+        <v>0.3438843620053262</v>
       </c>
       <c r="D15">
-        <v>0.03322182465642953</v>
+        <v>0.02998599213345443</v>
       </c>
       <c r="E15">
-        <v>0.09716457871024531</v>
+        <v>0.07343389110020837</v>
       </c>
       <c r="F15">
-        <v>3.588112361220396</v>
+        <v>3.011026512287657</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1890424598412537</v>
+        <v>0.1417834158778746</v>
       </c>
       <c r="K15">
-        <v>1.316792749018617</v>
+        <v>2.406076298526983</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4373521078081879</v>
+        <v>0.631435042019163</v>
       </c>
       <c r="N15">
-        <v>3.600792293197784</v>
+        <v>2.241929624603543</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.200413689924744</v>
+        <v>2.064811997640334</v>
       </c>
       <c r="C16">
-        <v>0.1691587985933722</v>
+        <v>0.320713124665815</v>
       </c>
       <c r="D16">
-        <v>0.0329028030249674</v>
+        <v>0.0280360037788796</v>
       </c>
       <c r="E16">
-        <v>0.09660512774502195</v>
+        <v>0.06972930430620394</v>
       </c>
       <c r="F16">
-        <v>3.566755568557255</v>
+        <v>2.893132244308106</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1881423148480081</v>
+        <v>0.1359288870344812</v>
       </c>
       <c r="K16">
-        <v>1.28090630629697</v>
+        <v>2.248193796729964</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4288929359153855</v>
+        <v>0.5916764582854412</v>
       </c>
       <c r="N16">
-        <v>3.600731598292739</v>
+        <v>2.232981810926304</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.180431797296251</v>
+        <v>1.977623762967198</v>
       </c>
       <c r="C17">
-        <v>0.1660200348086676</v>
+        <v>0.3066741231507137</v>
       </c>
       <c r="D17">
-        <v>0.03271204853791687</v>
+        <v>0.02684521137277329</v>
       </c>
       <c r="E17">
-        <v>0.09627314108558949</v>
+        <v>0.06748856771718081</v>
       </c>
       <c r="F17">
-        <v>3.554025104543427</v>
+        <v>2.822381552000977</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1876099815406249</v>
+        <v>0.132407670356443</v>
       </c>
       <c r="K17">
-        <v>1.259079855439523</v>
+        <v>2.152469326671621</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4237654121635259</v>
+        <v>0.567580912368264</v>
       </c>
       <c r="N17">
-        <v>3.600904511160948</v>
+        <v>2.228329106381821</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.169002827821117</v>
+        <v>1.927823292987114</v>
       </c>
       <c r="C18">
-        <v>0.1642242772688292</v>
+        <v>0.298659261448762</v>
       </c>
       <c r="D18">
-        <v>0.03260415998040145</v>
+        <v>0.02616216361353452</v>
       </c>
       <c r="E18">
-        <v>0.09608631790550604</v>
+        <v>0.06621085364135126</v>
       </c>
       <c r="F18">
-        <v>3.546839211979986</v>
+        <v>2.782234677107937</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1873111013668733</v>
+        <v>0.13040684166576</v>
       </c>
       <c r="K18">
-        <v>1.246595132885773</v>
+        <v>2.097798555134574</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4208389384247511</v>
+        <v>0.5538232095640439</v>
       </c>
       <c r="N18">
-        <v>3.601081110432915</v>
+        <v>2.225947115471044</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.165144177003612</v>
+        <v>1.911019168319598</v>
       </c>
       <c r="C19">
-        <v>0.1636179072934567</v>
+        <v>0.2959554522408894</v>
       </c>
       <c r="D19">
-        <v>0.03256794550475206</v>
+        <v>0.02593120258022452</v>
       </c>
       <c r="E19">
-        <v>0.09602377194917366</v>
+        <v>0.06578009036670096</v>
       </c>
       <c r="F19">
-        <v>3.544429598773206</v>
+        <v>2.768732738588938</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1872111600612172</v>
+        <v>0.1297334750704522</v>
       </c>
       <c r="K19">
-        <v>1.242379910925905</v>
+        <v>2.079351921411529</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4198519900443287</v>
+        <v>0.5491818656681673</v>
       </c>
       <c r="N19">
-        <v>3.601154145594791</v>
+        <v>2.22518991804067</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.182552269947962</v>
+        <v>1.986868543005983</v>
       </c>
       <c r="C20">
-        <v>0.1663531699589385</v>
+        <v>0.3081622881349517</v>
       </c>
       <c r="D20">
-        <v>0.03273216561607484</v>
+        <v>0.02697177715473487</v>
       </c>
       <c r="E20">
-        <v>0.09630805461943126</v>
+        <v>0.06772593554252992</v>
       </c>
       <c r="F20">
-        <v>3.555366172084817</v>
+        <v>2.829855781166458</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1876658933935715</v>
+        <v>0.1327799460369263</v>
       </c>
       <c r="K20">
-        <v>1.261396146965382</v>
+        <v>2.162618642877931</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4243088919196936</v>
+        <v>0.5701352741834</v>
       </c>
       <c r="N20">
-        <v>3.600878118300614</v>
+        <v>2.228793663217957</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.241807155747722</v>
+        <v>2.24604587798666</v>
       </c>
       <c r="C21">
-        <v>0.1756578496876102</v>
+        <v>0.3499249889700309</v>
       </c>
       <c r="D21">
-        <v>0.03330571559491347</v>
+        <v>0.03049125086013049</v>
       </c>
       <c r="E21">
-        <v>0.09731248296394668</v>
+        <v>0.07440073904218636</v>
       </c>
       <c r="F21">
-        <v>3.593741115018247</v>
+        <v>3.041977534322484</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.189281005212564</v>
+        <v>0.143317851737379</v>
       </c>
       <c r="K21">
-        <v>1.326116332984583</v>
+        <v>2.447212295965386</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4395552442122437</v>
+        <v>0.6417971014498178</v>
       </c>
       <c r="N21">
-        <v>3.600873001674032</v>
+        <v>2.244509676788454</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.281105503327865</v>
+        <v>2.419084888494183</v>
       </c>
       <c r="C22">
-        <v>0.1818247445086456</v>
+        <v>0.3778554073208795</v>
       </c>
       <c r="D22">
-        <v>0.03369668745627052</v>
+        <v>0.0328111858938982</v>
       </c>
       <c r="E22">
-        <v>0.09800559804652664</v>
+        <v>0.07887575971325944</v>
       </c>
       <c r="F22">
-        <v>3.620037426138254</v>
+        <v>3.186172258537709</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1904016298296582</v>
+        <v>0.1504532089727633</v>
       </c>
       <c r="K22">
-        <v>1.369033298086919</v>
+        <v>2.637286063018678</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4497222945052783</v>
+        <v>0.6896900677545617</v>
       </c>
       <c r="N22">
-        <v>3.601558417073136</v>
+        <v>2.257693506423834</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.260078852868389</v>
+        <v>2.326368043846173</v>
       </c>
       <c r="C23">
-        <v>0.1785254875138378</v>
+        <v>0.3628849529063416</v>
       </c>
       <c r="D23">
-        <v>0.03348655067213002</v>
+        <v>0.03157102267822154</v>
       </c>
       <c r="E23">
-        <v>0.0976323188778494</v>
+        <v>0.07647633852743851</v>
       </c>
       <c r="F23">
-        <v>3.605891219436529</v>
+        <v>3.10866843381325</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1897975779281111</v>
+        <v>0.1466206645294079</v>
       </c>
       <c r="K23">
-        <v>1.346071021915606</v>
+        <v>2.535434952042976</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4442773952003236</v>
+        <v>0.6640239251225424</v>
       </c>
       <c r="N23">
-        <v>3.601129488439057</v>
+        <v>2.250375397941554</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.181593420852437</v>
+        <v>1.982687970913275</v>
       </c>
       <c r="C24">
-        <v>0.1662025322792715</v>
+        <v>0.307489314321316</v>
       </c>
       <c r="D24">
-        <v>0.03272306514259782</v>
+        <v>0.02691455195606807</v>
       </c>
       <c r="E24">
-        <v>0.09629225762494897</v>
+        <v>0.06761858894386563</v>
       </c>
       <c r="F24">
-        <v>3.554759461120156</v>
+        <v>2.826475042923903</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1876405933264635</v>
+        <v>0.1326115671226731</v>
       </c>
       <c r="K24">
-        <v>1.260348753498647</v>
+        <v>2.15802901458602</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4240631180418006</v>
+        <v>0.5689801524954561</v>
       </c>
       <c r="N24">
-        <v>3.600889810081895</v>
+        <v>2.228582727850579</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.099383343701874</v>
+        <v>1.625017894743024</v>
       </c>
       <c r="C25">
-        <v>0.1532760300545135</v>
+        <v>0.2499836425149624</v>
       </c>
       <c r="D25">
-        <v>0.03196951659402458</v>
+        <v>0.02196161995557588</v>
       </c>
       <c r="E25">
-        <v>0.09500460391909726</v>
+        <v>0.05848192196361168</v>
       </c>
       <c r="F25">
-        <v>3.504816464229137</v>
+        <v>2.542680823807018</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1855931587326296</v>
+        <v>0.1184224914992029</v>
       </c>
       <c r="K25">
-        <v>1.170530588199767</v>
+        <v>1.765458510307013</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4031280583612897</v>
+        <v>0.4702658312069588</v>
       </c>
       <c r="N25">
-        <v>3.603579582798574</v>
+        <v>2.216186645003361</v>
       </c>
       <c r="O25">
         <v>0</v>
